--- a/ccaa_semanal.xlsx
+++ b/ccaa_semanal.xlsx
@@ -319,7 +319,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
